--- a/Formulasation(shacl)/core/Templates/SHACL-distribution.xlsx
+++ b/Formulasation(shacl)/core/Templates/SHACL-distribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GDI/shacl_template_GDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/gdi-metadata/Formulasation(shacl)/core/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{67D697DE-5446-C941-BDB7-13D5AA62327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE89675-931E-476E-A94B-B177FDCD7819}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{67D697DE-5446-C941-BDB7-13D5AA62327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7CDC24-419D-44DA-B261-54E866692426}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="170">
   <si>
     <t>PREFIX</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>gdi:DistributionShape</t>
+  </si>
+  <si>
+    <t>http://data.health-ri.nl/GDI/RightsStatementShape</t>
+  </si>
+  <si>
+    <t>dash:DetailsViewer</t>
+  </si>
+  <si>
+    <t>dash:BlankNodeEditor</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2249,7 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">NOW()</f>
-        <v>45842.489010879632</v>
+        <v>45849.442971412034</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2398,9 +2407,9 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="X16" sqref="X16:Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2912,18 +2921,19 @@
       <c r="H16" s="71">
         <v>1</v>
       </c>
-      <c r="I16" s="74" t="s">
-        <v>135</v>
-      </c>
+      <c r="I16" s="74"/>
       <c r="L16" s="52"/>
+      <c r="M16" s="67" t="s">
+        <v>167</v>
+      </c>
       <c r="U16" s="73"/>
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="74" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="Y16" s="74" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">

--- a/Formulasation(shacl)/core/Templates/SHACL-distribution.xlsx
+++ b/Formulasation(shacl)/core/Templates/SHACL-distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/gdi-metadata/Formulasation(shacl)/core/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{67D697DE-5446-C941-BDB7-13D5AA62327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7CDC24-419D-44DA-B261-54E866692426}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{67D697DE-5446-C941-BDB7-13D5AA62327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5455BFC5-41A2-4F6B-97F2-A33ECFEAA051}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="161">
   <si>
     <t>PREFIX</t>
   </si>
@@ -484,33 +484,12 @@
     <t>dash:TextFieldEditor</t>
   </si>
   <si>
-    <t>dct:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>This property can be repeated for parallel language versions of the description.</t>
-  </si>
-  <si>
     <t>dct:format</t>
   </si>
   <si>
     <t>format</t>
   </si>
   <si>
-    <t>dct:license</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>dcat:mediaType</t>
-  </si>
-  <si>
-    <t>media type</t>
-  </si>
-  <si>
     <t>dct:rights</t>
   </si>
   <si>
@@ -518,12 +497,6 @@
   </si>
   <si>
     <t>A statement that concerns all rights not addressed in fields License or Rights, such as copyright statements. Everything that is not covered with licece</t>
-  </si>
-  <si>
-    <t>dct:title</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>gdi</t>
@@ -562,7 +535,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -754,21 +727,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1297,7 +1255,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1420,10 +1378,7 @@
     <xf numFmtId="0" fontId="30" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" xfId="161" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1433,9 +1388,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2127,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -2221,7 +2173,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -2230,7 +2182,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -2249,7 +2201,7 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">NOW()</f>
-        <v>45849.442971412034</v>
+        <v>45849.489287152777</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2361,7 +2313,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>47</v>
@@ -2404,12 +2356,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="topRight" activeCell="X16" sqref="X16:Y16"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2393,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C1" s="5"/>
       <c r="Q1" s="5"/>
@@ -2644,49 +2596,49 @@
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
     </row>
-    <row r="9" spans="1:25" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A17" si="0">CONCATENATE(B9,"#",C9)</f>
+    <row r="9" spans="1:25" s="57" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="str">
+        <f t="shared" ref="A9:A13" si="0">CONCATENATE(B9,"#",C9)</f>
         <v>gdi:DistributionShape#dcat:accessURL</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="55">
+      <c r="F9" s="59"/>
+      <c r="G9" s="53">
         <v>1</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="65" t="s">
+      <c r="L9" s="54"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="65" t="s">
+      <c r="Y9" s="63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="str">
+    <row r="10" spans="1:25" s="65" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DistributionShape#dcatap:applicableLegislation</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>166</v>
+      <c r="B10" s="66" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>138</v>
@@ -2694,284 +2646,146 @@
       <c r="D10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="51">
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="50">
         <v>1</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="74" t="s">
+      <c r="L10" s="51"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="Y10" s="74" t="s">
+      <c r="Y10" s="72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="59" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="str">
+    <row r="11" spans="1:25" s="57" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DistributionShape#dcat:byteSize</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="61" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>1</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="60">
         <v>1</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="54">
         <v>0</v>
       </c>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="65" t="s">
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="Y11" s="65" t="s">
+      <c r="Y11" s="63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="67" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="str">
-        <f t="shared" si="0"/>
-        <v>gdi:DistributionShape#dct:description</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="52"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y12" s="74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="59" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="str">
+    <row r="12" spans="1:25" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DistributionShape#dct:format</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="55">
+      <c r="B12" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="53">
         <v>1</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H12" s="60">
         <v>1</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I12" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="65" t="s">
+      <c r="L12" s="54"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="Y13" s="65" t="s">
+      <c r="Y12" s="63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="str">
-        <f t="shared" si="0"/>
-        <v>gdi:DistributionShape#dct:license</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="51">
-        <v>1</v>
-      </c>
-      <c r="H14" s="71">
-        <v>1</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="52"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y14" s="74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="59" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>gdi:DistributionShape#dcat:mediaType</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="62">
-        <v>1</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" s="56"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y15" s="65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="67" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="str">
+    <row r="13" spans="1:25" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="str">
         <f t="shared" si="0"/>
         <v>gdi:DistributionShape#dct:rights</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="B13" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="C13" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="50">
+        <v>1</v>
+      </c>
+      <c r="H13" s="69">
+        <v>1</v>
+      </c>
+      <c r="I13" s="72"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="51">
-        <v>1</v>
-      </c>
-      <c r="H16" s="71">
-        <v>1</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y16" s="74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>gdi:DistributionShape#dct:title</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="Y13" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="56"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y17" s="65" t="s">
-        <v>146</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G9:G17">
+  <conditionalFormatting sqref="G9:G13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
@@ -2980,16 +2794,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G17 G9:G12" xr:uid="{EDC952CC-97B4-994F-AA14-28A44C65C7A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G9:G11" xr:uid="{EDC952CC-97B4-994F-AA14-28A44C65C7A2}">
       <formula1>"0..n, 0..1, 1, 1..n"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C9" r:id="rId2" location="Property:distribution_accessurl" xr:uid="{DD921561-5282-EC4F-A210-6BA7C3349004}"/>
-    <hyperlink ref="C14" r:id="rId3" location="terms-license" xr:uid="{3E72892B-FB76-A148-AD80-8A2C3BB661EF}"/>
-    <hyperlink ref="C16" r:id="rId4" location="terms-rights" xr:uid="{7F73E49C-32B2-4546-80F3-40E53493DB21}"/>
-    <hyperlink ref="B1" r:id="rId5" xr:uid="{8B1A5D43-A45F-424D-B3B8-EF145E88FDB0}"/>
+    <hyperlink ref="C13" r:id="rId3" location="terms-rights" xr:uid="{7F73E49C-32B2-4546-80F3-40E53493DB21}"/>
+    <hyperlink ref="B1" r:id="rId4" xr:uid="{8B1A5D43-A45F-424D-B3B8-EF145E88FDB0}"/>
   </hyperlinks>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3001,12 +2814,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Persoon>
+    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3298,30 +3123,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Persoon>
-    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF0D4BE-F0F3-4B03-A8BD-9CD4C60B556D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFAAEB16-68DD-4D0B-ABEE-F5FFA1FFD6CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3346,12 +3162,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFAAEB16-68DD-4D0B-ABEE-F5FFA1FFD6CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF0D4BE-F0F3-4B03-A8BD-9CD4C60B556D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>